--- a/legislator/property/output/normal/張慶忠_2011-11-15_財產申報表_tmpe5e71.xlsx
+++ b/legislator/property/output/normal/張慶忠_2011-11-15_財產申報表_tmpe5e71.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="388">
   <si>
     <t>土地坐落</t>
   </si>
@@ -902,6 +902,15 @@
     <t>total</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
     <t>中和纺織</t>
   </si>
   <si>
@@ -969,6 +978,9 @@
   </si>
   <si>
     <t>1.0’780’000</t>
+  </si>
+  <si>
+    <t>2011-11-15</t>
   </si>
   <si>
     <t>名</t>
@@ -5698,13 +5710,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>287</v>
       </c>
@@ -5723,13 +5735,22 @@
       <c r="G1" s="1" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>214</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>166</v>
@@ -5746,13 +5767,22 @@
       <c r="G2" s="2">
         <v>4880</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>215</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>166</v>
@@ -5769,13 +5799,22 @@
       <c r="G3" s="2">
         <v>5302900</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>216</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>169</v>
@@ -5792,13 +5831,22 @@
       <c r="G4" s="2">
         <v>186400</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>217</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>169</v>
@@ -5815,13 +5863,22 @@
       <c r="G5" s="2">
         <v>3024260</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>218</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>169</v>
@@ -5838,13 +5895,22 @@
       <c r="G6" s="2">
         <v>1121890</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>219</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>169</v>
@@ -5861,13 +5927,22 @@
       <c r="G7" s="2">
         <v>110000</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>220</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>169</v>
@@ -5884,13 +5959,22 @@
       <c r="G8" s="2">
         <v>869330</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>221</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>169</v>
@@ -5907,13 +5991,22 @@
       <c r="G9" s="2">
         <v>373040</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>222</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>169</v>
@@ -5930,13 +6023,22 @@
       <c r="G10" s="2">
         <v>1000000</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>223</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>169</v>
@@ -5953,13 +6055,22 @@
       <c r="G11" s="2">
         <v>135750</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>224</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>169</v>
@@ -5976,13 +6087,22 @@
       <c r="G12" s="2">
         <v>222640</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>225</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>169</v>
@@ -5999,13 +6119,22 @@
       <c r="G13" s="2">
         <v>42600</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1">
         <v>226</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>169</v>
@@ -6022,13 +6151,22 @@
       <c r="G14" s="2">
         <v>1300000</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1">
         <v>227</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>169</v>
@@ -6045,13 +6183,22 @@
       <c r="G15" s="2">
         <v>93500000</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="J15" s="2">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1">
         <v>228</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>169</v>
@@ -6068,13 +6215,22 @@
       <c r="G16" s="2">
         <v>252000</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="J16" s="2">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1">
         <v>229</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>169</v>
@@ -6091,13 +6247,22 @@
       <c r="G17" s="2">
         <v>300000</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="J17" s="2">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1">
         <v>230</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>166</v>
@@ -6114,13 +6279,22 @@
       <c r="G18" s="2">
         <v>55000000</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="J18" s="2">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1">
         <v>232</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>169</v>
@@ -6137,13 +6311,22 @@
       <c r="G19" s="2">
         <v>1500000</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="J19" s="2">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1">
         <v>233</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>166</v>
@@ -6160,13 +6343,22 @@
       <c r="G20" s="2">
         <v>18000000</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="J20" s="2">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1">
         <v>234</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>166</v>
@@ -6183,13 +6375,22 @@
       <c r="G21" s="2">
         <v>1780</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="J21" s="2">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1">
         <v>235</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>169</v>
@@ -6204,15 +6405,24 @@
         <v>283</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>317</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="J22" s="2">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1">
         <v>236</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>166</v>
@@ -6229,13 +6439,22 @@
       <c r="G23" s="2">
         <v>7000000</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="J23" s="2">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1">
         <v>237</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>166</v>
@@ -6250,7 +6469,16 @@
         <v>283</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>315</v>
+        <v>318</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="J24" s="2">
+        <v>1347</v>
       </c>
     </row>
   </sheetData>
@@ -6268,16 +6496,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -6285,13 +6513,13 @@
         <v>253</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="E2" s="2"/>
     </row>
@@ -6300,16 +6528,16 @@
         <v>254</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>260</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -6317,7 +6545,7 @@
         <v>255</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C4" s="2">
         <v>2</v>
@@ -6334,7 +6562,7 @@
         <v>256</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C5" s="2">
         <v>2</v>
@@ -6351,7 +6579,7 @@
         <v>257</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -6368,7 +6596,7 @@
         <v>258</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
@@ -6385,7 +6613,7 @@
         <v>259</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
@@ -6402,7 +6630,7 @@
         <v>261</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="C9" s="2">
         <v>1</v>
@@ -6411,7 +6639,7 @@
         <v>166</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -6419,7 +6647,7 @@
         <v>262</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
@@ -6436,7 +6664,7 @@
         <v>263</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
@@ -6453,7 +6681,7 @@
         <v>264</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C12" s="2">
         <v>1</v>
@@ -6470,7 +6698,7 @@
         <v>265</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C13" s="2">
         <v>1</v>
@@ -6487,7 +6715,7 @@
         <v>266</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C14" s="2">
         <v>1</v>
@@ -6504,7 +6732,7 @@
         <v>267</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C15" s="2">
         <v>5</v>
@@ -6521,7 +6749,7 @@
         <v>269</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C16" s="2">
         <v>3</v>
@@ -6538,7 +6766,7 @@
         <v>270</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C17" s="2">
         <v>1</v>
@@ -6555,7 +6783,7 @@
         <v>271</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C18" s="2">
         <v>1</v>
@@ -6572,7 +6800,7 @@
         <v>272</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C19" s="2">
         <v>1</v>
@@ -6589,7 +6817,7 @@
         <v>273</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C20" s="2">
         <v>1</v>
@@ -6616,16 +6844,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -6633,10 +6861,10 @@
         <v>278</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>168</v>
@@ -6648,10 +6876,10 @@
         <v>279</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>166</v>
@@ -6663,10 +6891,10 @@
         <v>280</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>166</v>
@@ -6678,10 +6906,10 @@
         <v>281</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>166</v>
@@ -6693,10 +6921,10 @@
         <v>282</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>166</v>
@@ -6708,16 +6936,16 @@
         <v>283</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>169</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
     </row>
   </sheetData>
@@ -6738,19 +6966,19 @@
         <v>258</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -6758,22 +6986,22 @@
         <v>288</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>169</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="E2" s="2">
         <v>372520000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -6781,22 +7009,22 @@
         <v>289</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>169</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="E3" s="2">
         <v>306396000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -6804,22 +7032,22 @@
         <v>290</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>169</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="E4" s="2">
         <v>135300000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -6827,22 +7055,22 @@
         <v>291</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>169</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="E5" s="2">
         <v>1000000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>
@@ -6860,22 +7088,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -6886,19 +7114,19 @@
         <v>169</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="E2" s="2">
         <v>15000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -6909,19 +7137,19 @@
         <v>169</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="E3" s="2">
         <v>17500000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -6932,19 +7160,19 @@
         <v>169</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="E4" s="2">
         <v>2000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -6955,17 +7183,17 @@
         <v>166</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="D5" s="2">
         <v>6000000</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/張慶忠_2011-11-15_財產申報表_tmpe5e71.xlsx
+++ b/legislator/property/output/normal/張慶忠_2011-11-15_財產申報表_tmpe5e71.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="390">
   <si>
     <t>土地坐落</t>
   </si>
@@ -902,6 +902,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -926,7 +929,7 @@
     <t>寶華銀行</t>
   </si>
   <si>
-    <t>潤泰創新國際股份有限公 司</t>
+    <t>潤泰創新國際股份有限公司</t>
   </si>
   <si>
     <t>開發金</t>
@@ -971,13 +974,16 @@
     <t>漢寶開發公司</t>
   </si>
   <si>
-    <t>基鴻建設開發股份有限公 司</t>
-  </si>
-  <si>
-    <t>29，000,000</t>
+    <t>基鴻建設開發股份有限公司</t>
+  </si>
+  <si>
+    <t>29000000</t>
   </si>
   <si>
     <t>1.0’780’000</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2011-11-15</t>
@@ -5710,13 +5716,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>287</v>
       </c>
@@ -5744,13 +5750,16 @@
       <c r="J1" s="1" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>214</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>166</v>
@@ -5768,21 +5777,24 @@
         <v>4880</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="J2" s="2">
+        <v>321</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="K2" s="2">
         <v>1347</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>215</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>166</v>
@@ -5800,21 +5812,24 @@
         <v>5302900</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="J3" s="2">
+        <v>321</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="K3" s="2">
         <v>1347</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>216</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>169</v>
@@ -5832,21 +5847,24 @@
         <v>186400</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="J4" s="2">
+        <v>321</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="K4" s="2">
         <v>1347</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>217</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>169</v>
@@ -5864,21 +5882,24 @@
         <v>3024260</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="J5" s="2">
+        <v>321</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="K5" s="2">
         <v>1347</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>218</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>169</v>
@@ -5896,21 +5917,24 @@
         <v>1121890</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="J6" s="2">
+        <v>321</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="K6" s="2">
         <v>1347</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>219</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>169</v>
@@ -5928,21 +5952,24 @@
         <v>110000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="J7" s="2">
+        <v>321</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="K7" s="2">
         <v>1347</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>220</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>169</v>
@@ -5960,21 +5987,24 @@
         <v>869330</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="J8" s="2">
+        <v>321</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="K8" s="2">
         <v>1347</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>221</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>169</v>
@@ -5992,21 +6022,24 @@
         <v>373040</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="J9" s="2">
+        <v>321</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="K9" s="2">
         <v>1347</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>222</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>169</v>
@@ -6024,21 +6057,24 @@
         <v>1000000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="J10" s="2">
+        <v>321</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="K10" s="2">
         <v>1347</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>223</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>169</v>
@@ -6056,21 +6092,24 @@
         <v>135750</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="J11" s="2">
+        <v>321</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="K11" s="2">
         <v>1347</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>224</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>169</v>
@@ -6088,21 +6127,24 @@
         <v>222640</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="J12" s="2">
+        <v>321</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="K12" s="2">
         <v>1347</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>225</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>169</v>
@@ -6120,21 +6162,24 @@
         <v>42600</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="J13" s="2">
+        <v>321</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="K13" s="2">
         <v>1347</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>226</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>169</v>
@@ -6152,21 +6197,24 @@
         <v>1300000</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="J14" s="2">
+        <v>321</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="K14" s="2">
         <v>1347</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>227</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>169</v>
@@ -6184,21 +6232,24 @@
         <v>93500000</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="J15" s="2">
+        <v>321</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="K15" s="2">
         <v>1347</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>228</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>169</v>
@@ -6216,21 +6267,24 @@
         <v>252000</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="J16" s="2">
+        <v>321</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="K16" s="2">
         <v>1347</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>229</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>169</v>
@@ -6248,21 +6302,24 @@
         <v>300000</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="J17" s="2">
+        <v>321</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="K17" s="2">
         <v>1347</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>230</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>166</v>
@@ -6280,21 +6337,24 @@
         <v>55000000</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="J18" s="2">
+        <v>321</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="K18" s="2">
         <v>1347</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:11">
       <c r="A19" s="1">
         <v>232</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>169</v>
@@ -6312,21 +6372,24 @@
         <v>1500000</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="J19" s="2">
+        <v>321</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="K19" s="2">
         <v>1347</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:11">
       <c r="A20" s="1">
         <v>233</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>166</v>
@@ -6344,21 +6407,24 @@
         <v>18000000</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="J20" s="2">
+        <v>321</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="K20" s="2">
         <v>1347</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:11">
       <c r="A21" s="1">
         <v>234</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>166</v>
@@ -6376,21 +6442,24 @@
         <v>1780</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="J21" s="2">
+        <v>321</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="K21" s="2">
         <v>1347</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:11">
       <c r="A22" s="1">
         <v>235</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>169</v>
@@ -6405,24 +6474,27 @@
         <v>283</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="J22" s="2">
+        <v>321</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="K22" s="2">
         <v>1347</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:11">
       <c r="A23" s="1">
         <v>236</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>166</v>
@@ -6440,21 +6512,24 @@
         <v>7000000</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="J23" s="2">
+        <v>321</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="K23" s="2">
         <v>1347</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:11">
       <c r="A24" s="1">
         <v>237</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>166</v>
@@ -6469,15 +6544,18 @@
         <v>283</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="J24" s="2">
+        <v>321</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="K24" s="2">
         <v>1347</v>
       </c>
     </row>
@@ -6496,16 +6574,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -6513,13 +6591,13 @@
         <v>253</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="E2" s="2"/>
     </row>
@@ -6528,16 +6606,16 @@
         <v>254</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>260</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -6545,7 +6623,7 @@
         <v>255</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C4" s="2">
         <v>2</v>
@@ -6562,7 +6640,7 @@
         <v>256</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C5" s="2">
         <v>2</v>
@@ -6579,7 +6657,7 @@
         <v>257</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -6596,7 +6674,7 @@
         <v>258</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
@@ -6613,7 +6691,7 @@
         <v>259</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
@@ -6630,7 +6708,7 @@
         <v>261</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C9" s="2">
         <v>1</v>
@@ -6639,7 +6717,7 @@
         <v>166</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -6647,7 +6725,7 @@
         <v>262</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
@@ -6664,7 +6742,7 @@
         <v>263</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
@@ -6681,7 +6759,7 @@
         <v>264</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C12" s="2">
         <v>1</v>
@@ -6698,7 +6776,7 @@
         <v>265</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C13" s="2">
         <v>1</v>
@@ -6715,7 +6793,7 @@
         <v>266</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C14" s="2">
         <v>1</v>
@@ -6732,7 +6810,7 @@
         <v>267</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C15" s="2">
         <v>5</v>
@@ -6749,7 +6827,7 @@
         <v>269</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C16" s="2">
         <v>3</v>
@@ -6766,7 +6844,7 @@
         <v>270</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C17" s="2">
         <v>1</v>
@@ -6783,7 +6861,7 @@
         <v>271</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C18" s="2">
         <v>1</v>
@@ -6800,7 +6878,7 @@
         <v>272</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C19" s="2">
         <v>1</v>
@@ -6817,7 +6895,7 @@
         <v>273</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C20" s="2">
         <v>1</v>
@@ -6844,16 +6922,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -6861,10 +6939,10 @@
         <v>278</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>168</v>
@@ -6876,10 +6954,10 @@
         <v>279</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>166</v>
@@ -6891,10 +6969,10 @@
         <v>280</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>166</v>
@@ -6906,10 +6984,10 @@
         <v>281</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>166</v>
@@ -6921,10 +6999,10 @@
         <v>282</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>166</v>
@@ -6936,16 +7014,16 @@
         <v>283</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>169</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -6966,19 +7044,19 @@
         <v>258</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -6986,22 +7064,22 @@
         <v>288</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>169</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="E2" s="2">
         <v>372520000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -7009,22 +7087,22 @@
         <v>289</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>169</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="E3" s="2">
         <v>306396000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -7032,22 +7110,22 @@
         <v>290</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>169</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="E4" s="2">
         <v>135300000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -7055,22 +7133,22 @@
         <v>291</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>169</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="E5" s="2">
         <v>1000000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -7088,22 +7166,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -7114,19 +7192,19 @@
         <v>169</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="E2" s="2">
         <v>15000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -7137,19 +7215,19 @@
         <v>169</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="E3" s="2">
         <v>17500000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -7160,19 +7238,19 @@
         <v>169</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="E4" s="2">
         <v>2000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -7183,17 +7261,17 @@
         <v>166</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D5" s="2">
         <v>6000000</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/張慶忠_2011-11-15_財產申報表_tmpe5e71.xlsx
+++ b/legislator/property/output/normal/張慶忠_2011-11-15_財產申報表_tmpe5e71.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="395">
   <si>
     <t>土地坐落</t>
   </si>
@@ -905,6 +905,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -914,6 +917,12 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>中和纺織</t>
   </si>
   <si>
@@ -980,13 +989,19 @@
     <t>29000000</t>
   </si>
   <si>
-    <t>1.0’780’000</t>
+    <t>1.0780000</t>
   </si>
   <si>
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2011-11-15</t>
+  </si>
+  <si>
+    <t>tmpe5e71</t>
   </si>
   <si>
     <t>名</t>
@@ -5716,13 +5731,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>287</v>
       </c>
@@ -5753,13 +5768,22 @@
       <c r="K1" s="1" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>214</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>166</v>
@@ -5777,24 +5801,33 @@
         <v>4880</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="K2" s="2">
+        <v>325</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="L2" s="2">
         <v>1347</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="M2" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="N2" s="2">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>215</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>166</v>
@@ -5812,24 +5845,33 @@
         <v>5302900</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="K3" s="2">
+        <v>325</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="L3" s="2">
         <v>1347</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="M3" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="N3" s="2">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>216</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>169</v>
@@ -5847,24 +5889,33 @@
         <v>186400</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="K4" s="2">
+        <v>325</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="L4" s="2">
         <v>1347</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="M4" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="N4" s="2">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>217</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>169</v>
@@ -5882,24 +5933,33 @@
         <v>3024260</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="K5" s="2">
+        <v>325</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="L5" s="2">
         <v>1347</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="M5" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="N5" s="2">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>218</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>169</v>
@@ -5917,24 +5977,33 @@
         <v>1121890</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="K6" s="2">
+        <v>325</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="L6" s="2">
         <v>1347</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="M6" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="N6" s="2">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>219</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>169</v>
@@ -5952,24 +6021,33 @@
         <v>110000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="K7" s="2">
+        <v>325</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="L7" s="2">
         <v>1347</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="M7" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="N7" s="2">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>220</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>169</v>
@@ -5987,24 +6065,33 @@
         <v>869330</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="K8" s="2">
+        <v>325</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="L8" s="2">
         <v>1347</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="M8" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="N8" s="2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>221</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>169</v>
@@ -6022,24 +6109,33 @@
         <v>373040</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="K9" s="2">
+        <v>325</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="L9" s="2">
         <v>1347</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="M9" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="N9" s="2">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>222</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>169</v>
@@ -6057,24 +6153,33 @@
         <v>1000000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="K10" s="2">
+        <v>325</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="L10" s="2">
         <v>1347</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="M10" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="N10" s="2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>223</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>169</v>
@@ -6092,24 +6197,33 @@
         <v>135750</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="K11" s="2">
+        <v>325</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="L11" s="2">
         <v>1347</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="M11" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="N11" s="2">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>224</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>169</v>
@@ -6127,24 +6241,33 @@
         <v>222640</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="K12" s="2">
+        <v>325</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="L12" s="2">
         <v>1347</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="M12" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="N12" s="2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>225</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>169</v>
@@ -6162,24 +6285,33 @@
         <v>42600</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="K13" s="2">
+        <v>325</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="L13" s="2">
         <v>1347</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="M13" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="N13" s="2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>226</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>169</v>
@@ -6197,24 +6329,33 @@
         <v>1300000</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="K14" s="2">
+        <v>325</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="L14" s="2">
         <v>1347</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="M14" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="N14" s="2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>227</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>169</v>
@@ -6232,24 +6373,33 @@
         <v>93500000</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="K15" s="2">
+        <v>325</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="L15" s="2">
         <v>1347</v>
       </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="M15" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="N15" s="2">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>228</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>169</v>
@@ -6267,24 +6417,33 @@
         <v>252000</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="K16" s="2">
+        <v>325</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="L16" s="2">
         <v>1347</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="M16" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="N16" s="2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>229</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>169</v>
@@ -6302,24 +6461,33 @@
         <v>300000</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="K17" s="2">
+        <v>325</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="L17" s="2">
         <v>1347</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="M17" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="N17" s="2">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>230</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>166</v>
@@ -6337,24 +6505,33 @@
         <v>55000000</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="K18" s="2">
+        <v>325</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="L18" s="2">
         <v>1347</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="M18" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="N18" s="2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>232</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>169</v>
@@ -6372,24 +6549,33 @@
         <v>1500000</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="K19" s="2">
+        <v>325</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="L19" s="2">
         <v>1347</v>
       </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="M19" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="N19" s="2">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>233</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>166</v>
@@ -6407,24 +6593,33 @@
         <v>18000000</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="K20" s="2">
+        <v>325</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="L20" s="2">
         <v>1347</v>
       </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="M20" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="N20" s="2">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>234</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>166</v>
@@ -6442,24 +6637,33 @@
         <v>1780</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="K21" s="2">
+        <v>325</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="L21" s="2">
         <v>1347</v>
       </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="M21" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="N21" s="2">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>235</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>169</v>
@@ -6474,27 +6678,36 @@
         <v>283</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="K22" s="2">
+        <v>325</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="L22" s="2">
         <v>1347</v>
       </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="M22" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="N22" s="2">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>236</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>166</v>
@@ -6512,24 +6725,33 @@
         <v>7000000</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="K23" s="2">
+        <v>325</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="L23" s="2">
         <v>1347</v>
       </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="M23" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="N23" s="2">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>237</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>166</v>
@@ -6544,19 +6766,28 @@
         <v>283</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="K24" s="2">
+        <v>325</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="L24" s="2">
         <v>1347</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="N24" s="2">
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -6574,16 +6805,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -6591,13 +6822,13 @@
         <v>253</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="E2" s="2"/>
     </row>
@@ -6606,16 +6837,16 @@
         <v>254</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>260</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -6623,7 +6854,7 @@
         <v>255</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="C4" s="2">
         <v>2</v>
@@ -6640,7 +6871,7 @@
         <v>256</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="C5" s="2">
         <v>2</v>
@@ -6657,7 +6888,7 @@
         <v>257</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -6674,7 +6905,7 @@
         <v>258</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
@@ -6691,7 +6922,7 @@
         <v>259</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
@@ -6708,7 +6939,7 @@
         <v>261</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="C9" s="2">
         <v>1</v>
@@ -6717,7 +6948,7 @@
         <v>166</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -6725,7 +6956,7 @@
         <v>262</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
@@ -6742,7 +6973,7 @@
         <v>263</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
@@ -6759,7 +6990,7 @@
         <v>264</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="C12" s="2">
         <v>1</v>
@@ -6776,7 +7007,7 @@
         <v>265</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="C13" s="2">
         <v>1</v>
@@ -6793,7 +7024,7 @@
         <v>266</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="C14" s="2">
         <v>1</v>
@@ -6810,7 +7041,7 @@
         <v>267</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="C15" s="2">
         <v>5</v>
@@ -6827,7 +7058,7 @@
         <v>269</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="C16" s="2">
         <v>3</v>
@@ -6844,7 +7075,7 @@
         <v>270</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="C17" s="2">
         <v>1</v>
@@ -6861,7 +7092,7 @@
         <v>271</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C18" s="2">
         <v>1</v>
@@ -6878,7 +7109,7 @@
         <v>272</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="C19" s="2">
         <v>1</v>
@@ -6895,7 +7126,7 @@
         <v>273</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="C20" s="2">
         <v>1</v>
@@ -6922,16 +7153,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -6939,10 +7170,10 @@
         <v>278</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>168</v>
@@ -6954,10 +7185,10 @@
         <v>279</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>166</v>
@@ -6969,10 +7200,10 @@
         <v>280</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>166</v>
@@ -6984,10 +7215,10 @@
         <v>281</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>166</v>
@@ -6999,10 +7230,10 @@
         <v>282</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>166</v>
@@ -7014,16 +7245,16 @@
         <v>283</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>169</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
     </row>
   </sheetData>
@@ -7044,19 +7275,19 @@
         <v>258</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -7064,22 +7295,22 @@
         <v>288</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>169</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="E2" s="2">
         <v>372520000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -7087,22 +7318,22 @@
         <v>289</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>169</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="E3" s="2">
         <v>306396000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -7110,22 +7341,22 @@
         <v>290</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>169</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="E4" s="2">
         <v>135300000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -7133,22 +7364,22 @@
         <v>291</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>169</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="E5" s="2">
         <v>1000000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
     </row>
   </sheetData>
@@ -7166,22 +7397,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -7192,19 +7423,19 @@
         <v>169</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="E2" s="2">
         <v>15000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -7215,19 +7446,19 @@
         <v>169</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="E3" s="2">
         <v>17500000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -7238,19 +7469,19 @@
         <v>169</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="E4" s="2">
         <v>2000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -7261,17 +7492,17 @@
         <v>166</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="D5" s="2">
         <v>6000000</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/張慶忠_2011-11-15_財產申報表_tmpe5e71.xlsx
+++ b/legislator/property/output/normal/張慶忠_2011-11-15_財產申報表_tmpe5e71.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1856" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1856" uniqueCount="358">
   <si>
     <t>name</t>
   </si>
@@ -786,6 +786,9 @@
   </si>
   <si>
     <t>新建</t>
+  </si>
+  <si>
+    <t>building</t>
   </si>
   <si>
     <t>彰化商業银行</t>
@@ -8114,7 +8117,7 @@
         <v>235</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>241</v>
@@ -8167,7 +8170,7 @@
         <v>9309000</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>241</v>
@@ -8220,7 +8223,7 @@
         <v>8378700</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>241</v>
@@ -8273,7 +8276,7 @@
         <v>235</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>241</v>
@@ -8315,13 +8318,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>166</v>
@@ -8336,13 +8339,13 @@
         <v>171</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>166</v>
@@ -8357,13 +8360,13 @@
         <v>172</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>166</v>
@@ -8378,13 +8381,13 @@
         <v>173</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>166</v>
@@ -8399,13 +8402,13 @@
         <v>174</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>166</v>
@@ -8420,13 +8423,13 @@
         <v>175</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>166</v>
@@ -8441,13 +8444,13 @@
         <v>176</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>166</v>
@@ -8462,13 +8465,13 @@
         <v>177</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>166</v>
@@ -8483,13 +8486,13 @@
         <v>178</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>166</v>
@@ -8504,13 +8507,13 @@
         <v>179</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>166</v>
@@ -8525,13 +8528,13 @@
         <v>180</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>166</v>
@@ -8546,13 +8549,13 @@
         <v>181</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>166</v>
@@ -8567,13 +8570,13 @@
         <v>182</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>169</v>
@@ -8588,13 +8591,13 @@
         <v>183</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>169</v>
@@ -8611,13 +8614,13 @@
         <v>184</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>169</v>
@@ -8632,13 +8635,13 @@
         <v>185</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>169</v>
@@ -8653,13 +8656,13 @@
         <v>186</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>169</v>
@@ -8674,13 +8677,13 @@
         <v>187</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>169</v>
@@ -8695,13 +8698,13 @@
         <v>188</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>169</v>
@@ -8716,13 +8719,13 @@
         <v>189</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>169</v>
@@ -8737,13 +8740,13 @@
         <v>190</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>169</v>
@@ -8758,13 +8761,13 @@
         <v>191</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>169</v>
@@ -8779,13 +8782,13 @@
         <v>192</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>169</v>
@@ -8800,13 +8803,13 @@
         <v>193</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>169</v>
@@ -8821,13 +8824,13 @@
         <v>194</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>169</v>
@@ -8842,13 +8845,13 @@
         <v>195</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>169</v>
@@ -8863,13 +8866,13 @@
         <v>196</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>169</v>
@@ -8884,13 +8887,13 @@
         <v>198</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>169</v>
@@ -8905,13 +8908,13 @@
         <v>199</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>169</v>
@@ -8926,20 +8929,20 @@
         <v>200</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>169</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -8947,13 +8950,13 @@
         <v>201</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>169</v>
@@ -8970,13 +8973,13 @@
         <v>202</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>169</v>
@@ -8991,13 +8994,13 @@
         <v>203</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>169</v>
@@ -9012,13 +9015,13 @@
         <v>204</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>169</v>
@@ -9033,13 +9036,13 @@
         <v>205</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>169</v>
@@ -9054,13 +9057,13 @@
         <v>206</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>169</v>
@@ -9075,13 +9078,13 @@
         <v>207</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>169</v>
@@ -9112,13 +9115,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -9150,7 +9153,7 @@
         <v>214</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>166</v>
@@ -9162,13 +9165,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G2" s="2">
         <v>4880</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>241</v>
@@ -9194,7 +9197,7 @@
         <v>215</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>166</v>
@@ -9206,13 +9209,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G3" s="2">
         <v>5302900</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>241</v>
@@ -9238,7 +9241,7 @@
         <v>216</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>169</v>
@@ -9250,13 +9253,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G4" s="2">
         <v>186400</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>241</v>
@@ -9282,7 +9285,7 @@
         <v>217</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>169</v>
@@ -9294,13 +9297,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G5" s="2">
         <v>3024260</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>241</v>
@@ -9326,7 +9329,7 @@
         <v>218</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>169</v>
@@ -9338,13 +9341,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G6" s="2">
         <v>1121890</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>241</v>
@@ -9370,7 +9373,7 @@
         <v>219</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>169</v>
@@ -9382,13 +9385,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G7" s="2">
         <v>110000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>241</v>
@@ -9414,7 +9417,7 @@
         <v>220</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>169</v>
@@ -9426,13 +9429,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G8" s="2">
         <v>869330</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>241</v>
@@ -9458,7 +9461,7 @@
         <v>221</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>169</v>
@@ -9470,13 +9473,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G9" s="2">
         <v>373040</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>241</v>
@@ -9502,7 +9505,7 @@
         <v>222</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>169</v>
@@ -9514,13 +9517,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G10" s="2">
         <v>1000000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>241</v>
@@ -9546,7 +9549,7 @@
         <v>223</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>169</v>
@@ -9558,13 +9561,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G11" s="2">
         <v>135750</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>241</v>
@@ -9590,7 +9593,7 @@
         <v>224</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>169</v>
@@ -9602,13 +9605,13 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G12" s="2">
         <v>222640</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>241</v>
@@ -9634,7 +9637,7 @@
         <v>225</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>169</v>
@@ -9646,13 +9649,13 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G13" s="2">
         <v>42600</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>241</v>
@@ -9678,7 +9681,7 @@
         <v>226</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>169</v>
@@ -9690,13 +9693,13 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G14" s="2">
         <v>1300000</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>241</v>
@@ -9722,7 +9725,7 @@
         <v>227</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>169</v>
@@ -9734,13 +9737,13 @@
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G15" s="2">
         <v>93500000</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>241</v>
@@ -9766,7 +9769,7 @@
         <v>228</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>169</v>
@@ -9778,13 +9781,13 @@
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G16" s="2">
         <v>252000</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>241</v>
@@ -9810,7 +9813,7 @@
         <v>229</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>169</v>
@@ -9822,13 +9825,13 @@
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G17" s="2">
         <v>300000</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>241</v>
@@ -9854,7 +9857,7 @@
         <v>230</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>166</v>
@@ -9866,13 +9869,13 @@
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G18" s="2">
         <v>55000000</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>241</v>
@@ -9898,7 +9901,7 @@
         <v>232</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>169</v>
@@ -9910,13 +9913,13 @@
         <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G19" s="2">
         <v>1500000</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>241</v>
@@ -9942,7 +9945,7 @@
         <v>233</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>166</v>
@@ -9954,13 +9957,13 @@
         <v>10</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G20" s="2">
         <v>18000000</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>241</v>
@@ -9986,7 +9989,7 @@
         <v>234</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>166</v>
@@ -9998,13 +10001,13 @@
         <v>10</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G21" s="2">
         <v>1780</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>241</v>
@@ -10030,7 +10033,7 @@
         <v>235</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>169</v>
@@ -10042,13 +10045,13 @@
         <v>100000</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>241</v>
@@ -10074,7 +10077,7 @@
         <v>236</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>166</v>
@@ -10086,13 +10089,13 @@
         <v>100000</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G23" s="2">
         <v>7000000</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>241</v>
@@ -10118,7 +10121,7 @@
         <v>237</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>166</v>
@@ -10130,13 +10133,13 @@
         <v>10000</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>241</v>
@@ -10172,13 +10175,13 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E1" s="1"/>
     </row>
@@ -10187,13 +10190,13 @@
         <v>253</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E2" s="2"/>
     </row>
@@ -10202,16 +10205,16 @@
         <v>254</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -10219,7 +10222,7 @@
         <v>255</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C4" s="2">
         <v>2</v>
@@ -10236,7 +10239,7 @@
         <v>256</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C5" s="2">
         <v>2</v>
@@ -10253,7 +10256,7 @@
         <v>257</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -10270,7 +10273,7 @@
         <v>258</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
@@ -10287,7 +10290,7 @@
         <v>259</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
@@ -10304,7 +10307,7 @@
         <v>261</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C9" s="2">
         <v>1</v>
@@ -10313,7 +10316,7 @@
         <v>166</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -10321,7 +10324,7 @@
         <v>262</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
@@ -10338,7 +10341,7 @@
         <v>263</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
@@ -10355,7 +10358,7 @@
         <v>264</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C12" s="2">
         <v>1</v>
@@ -10372,7 +10375,7 @@
         <v>265</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C13" s="2">
         <v>1</v>
@@ -10389,7 +10392,7 @@
         <v>266</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C14" s="2">
         <v>1</v>
@@ -10406,7 +10409,7 @@
         <v>267</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C15" s="2">
         <v>5</v>
@@ -10423,7 +10426,7 @@
         <v>269</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C16" s="2">
         <v>3</v>
@@ -10440,7 +10443,7 @@
         <v>270</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C17" s="2">
         <v>1</v>
@@ -10457,7 +10460,7 @@
         <v>271</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C18" s="2">
         <v>1</v>
@@ -10474,7 +10477,7 @@
         <v>272</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C19" s="2">
         <v>1</v>
@@ -10491,7 +10494,7 @@
         <v>273</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C20" s="2">
         <v>1</v>
@@ -10518,10 +10521,10 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>168</v>
@@ -10533,10 +10536,10 @@
         <v>278</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>168</v>
@@ -10548,10 +10551,10 @@
         <v>279</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>166</v>
@@ -10563,10 +10566,10 @@
         <v>280</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>166</v>
@@ -10578,10 +10581,10 @@
         <v>281</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>166</v>
@@ -10593,10 +10596,10 @@
         <v>282</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>166</v>
@@ -10608,16 +10611,16 @@
         <v>283</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>169</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>
@@ -10635,22 +10638,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>169</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E1" s="1">
         <v>372520000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -10658,22 +10661,22 @@
         <v>288</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>169</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E2" s="2">
         <v>372520000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -10681,22 +10684,22 @@
         <v>289</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>169</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E3" s="2">
         <v>306396000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -10704,22 +10707,22 @@
         <v>290</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>169</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E4" s="2">
         <v>135300000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -10727,22 +10730,22 @@
         <v>291</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>169</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E5" s="2">
         <v>1000000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -10763,19 +10766,19 @@
         <v>169</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E1" s="1">
         <v>15000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -10786,19 +10789,19 @@
         <v>169</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E2" s="2">
         <v>15000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -10809,19 +10812,19 @@
         <v>169</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E3" s="2">
         <v>17500000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -10832,19 +10835,19 @@
         <v>169</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E4" s="2">
         <v>2000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -10855,17 +10858,17 @@
         <v>166</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D5" s="2">
         <v>6000000</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/張慶忠_2011-11-15_財產申報表_tmpe5e71.xlsx
+++ b/legislator/property/output/normal/張慶忠_2011-11-15_財產申報表_tmpe5e71.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1856" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2043" uniqueCount="360">
   <si>
     <t>name</t>
   </si>
@@ -791,82 +791,88 @@
     <t>building</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>彰化商業银行</t>
   </si>
   <si>
+    <t>國泰世華商業銀行</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司</t>
+  </si>
+  <si>
+    <t>聯邦商業銀行</t>
+  </si>
+  <si>
+    <t>臺灣銀行</t>
+  </si>
+  <si>
+    <t>臺北縣中和地區農會</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行</t>
+  </si>
+  <si>
+    <t>彰化商業銀行</t>
+  </si>
+  <si>
+    <t>中國信託商業銀行</t>
+  </si>
+  <si>
+    <t>台灣中小企業銀行</t>
+  </si>
+  <si>
+    <t>臺灣土地銀行</t>
+  </si>
+  <si>
+    <t>安泰商業銀行</t>
+  </si>
+  <si>
+    <t>板信商業銀行福和分行</t>
+  </si>
+  <si>
     <t>活期儲蓄存款</t>
   </si>
   <si>
+    <t>活期存款</t>
+  </si>
+  <si>
+    <t>綜合存款</t>
+  </si>
+  <si>
+    <t>支票存款</t>
+  </si>
+  <si>
+    <t>支*存款</t>
+  </si>
+  <si>
+    <t>定期儲蓄存款</t>
+  </si>
+  <si>
     <t>新臺笮</t>
   </si>
   <si>
-    <t>國泰世華商業銀行</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司</t>
-  </si>
-  <si>
-    <t>聯邦商業銀行</t>
-  </si>
-  <si>
-    <t>臺灣銀行</t>
-  </si>
-  <si>
-    <t>臺北縣中和地區農會</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行</t>
-  </si>
-  <si>
-    <t>彰化商業銀行</t>
-  </si>
-  <si>
-    <t>中國信託商業銀行</t>
-  </si>
-  <si>
-    <t>台灣中小企業銀行</t>
-  </si>
-  <si>
-    <t>臺灣土地銀行</t>
-  </si>
-  <si>
-    <t>安泰商業銀行</t>
-  </si>
-  <si>
-    <t>板信商業銀行福和分行</t>
-  </si>
-  <si>
-    <t>活期存款</t>
-  </si>
-  <si>
-    <t>綜合存款</t>
-  </si>
-  <si>
-    <t>支票存款</t>
-  </si>
-  <si>
-    <t>支*存款</t>
-  </si>
-  <si>
-    <t>定期儲蓄存款</t>
-  </si>
-  <si>
     <t>新臺幣</t>
   </si>
   <si>
     <t>美金</t>
   </si>
   <si>
-    <t>12如1793</t>
+    <t>deposit</t>
   </si>
   <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>中和纺織</t>
@@ -8310,13 +8316,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>256</v>
       </c>
@@ -8327,771 +8333,1507 @@
         <v>258</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>171</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>258</v>
+        <v>278</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
+      <c r="F2" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1347</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="M2" s="2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>172</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
+      <c r="F3" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1347</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="M3" s="2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>173</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
+      <c r="F4" s="2">
         <v>58</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1347</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="M4" s="2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>174</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
+      <c r="F5" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1347</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="M5" s="2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>175</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
+      <c r="F6" s="2">
         <v>1517</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1347</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="M6" s="2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>176</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
+      <c r="F7" s="2">
         <v>6385364</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1347</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="M7" s="2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>177</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
+      <c r="F8" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1347</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="M8" s="2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>178</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2">
+      <c r="F9" s="2">
         <v>13913</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="G9" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1347</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="M9" s="2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>179</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2">
+      <c r="F10" s="2">
         <v>106</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="G10" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1347</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="M10" s="2">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>180</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2">
+      <c r="F11" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="G11" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1347</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="M11" s="2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>181</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2">
+      <c r="F12" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="G12" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1347</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="M12" s="2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>182</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2">
+      <c r="F13" s="2">
         <v>3379</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="G13" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1347</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="M13" s="2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>183</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>169</v>
       </c>
       <c r="F14" s="2">
-        <v>15</v>
-      </c>
-      <c r="G14" s="2">
         <v>450</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="G14" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1347</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="M14" s="2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>184</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2">
+      <c r="F15" s="2">
         <v>188878</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="G15" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1347</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="M15" s="2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>185</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2">
+      <c r="F16" s="2">
         <v>462021</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="G16" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1347</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="M16" s="2">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>186</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2">
+      <c r="F17" s="2">
         <v>19955.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="G17" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1347</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="M17" s="2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>187</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2">
+      <c r="F18" s="2">
         <v>29</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="G18" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="K18" s="2">
+        <v>1347</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="M18" s="2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>188</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2">
+      <c r="F19" s="2">
         <v>331937</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="G19" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="K19" s="2">
+        <v>1347</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="M19" s="2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>189</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2">
+      <c r="F20" s="2">
         <v>576243</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="G20" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="K20" s="2">
+        <v>1347</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="M20" s="2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>190</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2">
+      <c r="F21" s="2">
         <v>33912</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="G21" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="K21" s="2">
+        <v>1347</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="M21" s="2">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>191</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2">
+      <c r="F22" s="2">
         <v>5977</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="G22" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="K22" s="2">
+        <v>1347</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="M22" s="2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>192</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2">
+      <c r="F23" s="2">
         <v>41348</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="G23" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="K23" s="2">
+        <v>1347</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="M23" s="2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>193</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2">
+      <c r="F24" s="2">
         <v>389976</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="G24" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="K24" s="2">
+        <v>1347</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="M24" s="2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>194</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2">
+      <c r="F25" s="2">
         <v>4315</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="G25" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="K25" s="2">
+        <v>1347</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="M25" s="2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1">
         <v>195</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2">
+      <c r="F26" s="2">
         <v>274</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="G26" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="K26" s="2">
+        <v>1347</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="M26" s="2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1">
         <v>196</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2">
+      <c r="F27" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="G27" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="K27" s="2">
+        <v>1347</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="M27" s="2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1">
         <v>198</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2">
+      <c r="F28" s="2">
         <v>506815</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="G28" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="K28" s="2">
+        <v>1347</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="M28" s="2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1">
         <v>199</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2">
+      <c r="F29" s="2">
         <v>1138814</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="G29" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="K29" s="2">
+        <v>1347</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="M29" s="2">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="1">
         <v>200</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="F30" s="2"/>
+      <c r="F30" s="2">
+        <v>121793</v>
+      </c>
       <c r="G30" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>281</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="K30" s="2">
+        <v>1347</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="M30" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="1">
         <v>201</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>169</v>
       </c>
       <c r="F31" s="2">
-        <v>2.22</v>
-      </c>
-      <c r="G31" s="2">
         <v>66.6</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="G31" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="K31" s="2">
+        <v>1347</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="M31" s="2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="1">
         <v>202</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2">
+      <c r="F32" s="2">
         <v>6646</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="G32" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="K32" s="2">
+        <v>1347</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="M32" s="2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="1">
         <v>203</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2">
+      <c r="F33" s="2">
         <v>117</v>
       </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="G33" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="K33" s="2">
+        <v>1347</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="M33" s="2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="1">
         <v>204</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2">
+      <c r="F34" s="2">
         <v>21</v>
       </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="G34" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="K34" s="2">
+        <v>1347</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="M34" s="2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="1">
         <v>205</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2">
+      <c r="F35" s="2">
         <v>10000000</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="G35" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="K35" s="2">
+        <v>1347</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="M35" s="2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="1">
         <v>206</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2">
+      <c r="F36" s="2">
         <v>53970000</v>
       </c>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="G36" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="K36" s="2">
+        <v>1347</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="M36" s="2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="1">
         <v>207</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2">
+      <c r="F37" s="2">
         <v>30119019</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="K37" s="2">
+        <v>1347</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="M37" s="2">
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -9115,13 +9857,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>281</v>
+        <v>258</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -9153,7 +9895,7 @@
         <v>214</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>166</v>
@@ -9165,13 +9907,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="G2" s="2">
         <v>4880</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>241</v>
@@ -9197,7 +9939,7 @@
         <v>215</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>166</v>
@@ -9209,13 +9951,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="G3" s="2">
         <v>5302900</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>241</v>
@@ -9241,7 +9983,7 @@
         <v>216</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>169</v>
@@ -9253,13 +9995,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="G4" s="2">
         <v>186400</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>241</v>
@@ -9285,7 +10027,7 @@
         <v>217</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>169</v>
@@ -9297,13 +10039,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="G5" s="2">
         <v>3024260</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>241</v>
@@ -9329,7 +10071,7 @@
         <v>218</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>169</v>
@@ -9341,13 +10083,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="G6" s="2">
         <v>1121890</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>241</v>
@@ -9373,7 +10115,7 @@
         <v>219</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>169</v>
@@ -9385,13 +10127,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="G7" s="2">
         <v>110000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>241</v>
@@ -9417,7 +10159,7 @@
         <v>220</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>169</v>
@@ -9429,13 +10171,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="G8" s="2">
         <v>869330</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>241</v>
@@ -9461,7 +10203,7 @@
         <v>221</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>169</v>
@@ -9473,13 +10215,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="G9" s="2">
         <v>373040</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>241</v>
@@ -9505,7 +10247,7 @@
         <v>222</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>169</v>
@@ -9517,13 +10259,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="G10" s="2">
         <v>1000000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>241</v>
@@ -9549,7 +10291,7 @@
         <v>223</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>169</v>
@@ -9561,13 +10303,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="G11" s="2">
         <v>135750</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>241</v>
@@ -9593,7 +10335,7 @@
         <v>224</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>169</v>
@@ -9605,13 +10347,13 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="G12" s="2">
         <v>222640</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>241</v>
@@ -9637,7 +10379,7 @@
         <v>225</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>169</v>
@@ -9649,13 +10391,13 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="G13" s="2">
         <v>42600</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>241</v>
@@ -9681,7 +10423,7 @@
         <v>226</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>169</v>
@@ -9693,13 +10435,13 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="G14" s="2">
         <v>1300000</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>241</v>
@@ -9725,7 +10467,7 @@
         <v>227</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>169</v>
@@ -9737,13 +10479,13 @@
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="G15" s="2">
         <v>93500000</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>241</v>
@@ -9769,7 +10511,7 @@
         <v>228</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>169</v>
@@ -9781,13 +10523,13 @@
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="G16" s="2">
         <v>252000</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>241</v>
@@ -9813,7 +10555,7 @@
         <v>229</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>169</v>
@@ -9825,13 +10567,13 @@
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="G17" s="2">
         <v>300000</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>241</v>
@@ -9857,7 +10599,7 @@
         <v>230</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>166</v>
@@ -9869,13 +10611,13 @@
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="G18" s="2">
         <v>55000000</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>241</v>
@@ -9901,7 +10643,7 @@
         <v>232</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>169</v>
@@ -9913,13 +10655,13 @@
         <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="G19" s="2">
         <v>1500000</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>241</v>
@@ -9945,7 +10687,7 @@
         <v>233</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>166</v>
@@ -9957,13 +10699,13 @@
         <v>10</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="G20" s="2">
         <v>18000000</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>241</v>
@@ -9989,7 +10731,7 @@
         <v>234</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>166</v>
@@ -10001,13 +10743,13 @@
         <v>10</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="G21" s="2">
         <v>1780</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>241</v>
@@ -10033,7 +10775,7 @@
         <v>235</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>169</v>
@@ -10045,13 +10787,13 @@
         <v>100000</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>241</v>
@@ -10077,7 +10819,7 @@
         <v>236</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>166</v>
@@ -10089,13 +10831,13 @@
         <v>100000</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="G23" s="2">
         <v>7000000</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>241</v>
@@ -10121,7 +10863,7 @@
         <v>237</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>166</v>
@@ -10133,13 +10875,13 @@
         <v>10000</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>241</v>
@@ -10175,13 +10917,13 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E1" s="1"/>
     </row>
@@ -10190,13 +10932,13 @@
         <v>253</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E2" s="2"/>
     </row>
@@ -10205,16 +10947,16 @@
         <v>254</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -10222,7 +10964,7 @@
         <v>255</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C4" s="2">
         <v>2</v>
@@ -10239,7 +10981,7 @@
         <v>256</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C5" s="2">
         <v>2</v>
@@ -10256,7 +10998,7 @@
         <v>257</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -10273,7 +11015,7 @@
         <v>258</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
@@ -10290,7 +11032,7 @@
         <v>259</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
@@ -10307,7 +11049,7 @@
         <v>261</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C9" s="2">
         <v>1</v>
@@ -10316,7 +11058,7 @@
         <v>166</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -10324,7 +11066,7 @@
         <v>262</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
@@ -10341,7 +11083,7 @@
         <v>263</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
@@ -10358,7 +11100,7 @@
         <v>264</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C12" s="2">
         <v>1</v>
@@ -10375,7 +11117,7 @@
         <v>265</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C13" s="2">
         <v>1</v>
@@ -10392,7 +11134,7 @@
         <v>266</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C14" s="2">
         <v>1</v>
@@ -10409,7 +11151,7 @@
         <v>267</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C15" s="2">
         <v>5</v>
@@ -10426,7 +11168,7 @@
         <v>269</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C16" s="2">
         <v>3</v>
@@ -10443,7 +11185,7 @@
         <v>270</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C17" s="2">
         <v>1</v>
@@ -10460,7 +11202,7 @@
         <v>271</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C18" s="2">
         <v>1</v>
@@ -10477,7 +11219,7 @@
         <v>272</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C19" s="2">
         <v>1</v>
@@ -10494,7 +11236,7 @@
         <v>273</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C20" s="2">
         <v>1</v>
@@ -10521,10 +11263,10 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>168</v>
@@ -10536,10 +11278,10 @@
         <v>278</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>168</v>
@@ -10551,10 +11293,10 @@
         <v>279</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>166</v>
@@ -10566,10 +11308,10 @@
         <v>280</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>166</v>
@@ -10581,10 +11323,10 @@
         <v>281</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>166</v>
@@ -10596,10 +11338,10 @@
         <v>282</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>166</v>
@@ -10611,16 +11353,16 @@
         <v>283</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>169</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -10638,22 +11380,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>169</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="E1" s="1">
         <v>372520000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -10661,22 +11403,22 @@
         <v>288</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>169</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="E2" s="2">
         <v>372520000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -10684,22 +11426,22 @@
         <v>289</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>169</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="E3" s="2">
         <v>306396000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -10707,22 +11449,22 @@
         <v>290</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>169</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="E4" s="2">
         <v>135300000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -10730,22 +11472,22 @@
         <v>291</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>169</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="E5" s="2">
         <v>1000000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -10766,19 +11508,19 @@
         <v>169</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="E1" s="1">
         <v>15000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -10789,19 +11531,19 @@
         <v>169</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="E2" s="2">
         <v>15000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -10812,19 +11554,19 @@
         <v>169</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="E3" s="2">
         <v>17500000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -10835,19 +11577,19 @@
         <v>169</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="E4" s="2">
         <v>2000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -10858,17 +11600,17 @@
         <v>166</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D5" s="2">
         <v>6000000</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/張慶忠_2011-11-15_財產申報表_tmpe5e71.xlsx
+++ b/legislator/property/output/normal/張慶忠_2011-11-15_財產申報表_tmpe5e71.xlsx
@@ -11,7 +11,7 @@
     <sheet name="建物" sheetId="2" r:id="rId2"/>
     <sheet name="存款" sheetId="3" r:id="rId3"/>
     <sheet name="股票" sheetId="4" r:id="rId4"/>
-    <sheet name="其他有價證券" sheetId="5" r:id="rId5"/>
+    <sheet name="珠寶、古董、字畫" sheetId="5" r:id="rId5"/>
     <sheet name="保險" sheetId="6" r:id="rId6"/>
     <sheet name="債權" sheetId="7" r:id="rId7"/>
     <sheet name="事業投資" sheetId="8" r:id="rId8"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2043" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2129" uniqueCount="354">
   <si>
     <t>name</t>
   </si>
@@ -680,7 +680,7 @@
     <t>100年04月28日</t>
   </si>
   <si>
-    <t>(其他(原因）■合併）</t>
+    <t>(其他(原因）合併）</t>
   </si>
   <si>
     <t>(其他(原因）：合併）</t>
@@ -947,18 +947,6 @@
     <t>stock</t>
   </si>
   <si>
-    <t>(九）珠寶古董字畫及多</t>
-  </si>
-  <si>
-    <t>：■他具有相當價值之財產（總</t>
-  </si>
-  <si>
-    <t>f額：新臺幣9110000元）</t>
-  </si>
-  <si>
-    <t>膝產種類</t>
-  </si>
-  <si>
     <t>鑽戒</t>
   </si>
   <si>
@@ -1004,16 +992,10 @@
     <t>福州溫泉高爾夫球證</t>
   </si>
   <si>
-    <t>項件</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>價額</t>
-  </si>
-  <si>
     <t>1000000</t>
+  </si>
+  <si>
+    <t>otherbonds</t>
   </si>
   <si>
     <t>國泰人壽</t>
@@ -10909,96 +10891,205 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
-        <v>308</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>309</v>
+        <v>282</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E2" s="2">
+        <v>700000</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1347</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="L2" s="2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1">
+        <v>256</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E3" s="2">
+        <v>400000</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1347</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="L3" s="2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1">
+        <v>257</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1">
-        <v>254</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1">
-        <v>255</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>312</v>
-      </c>
       <c r="C4" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>166</v>
       </c>
       <c r="E4" s="2">
-        <v>700000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>800000</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1347</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="L4" s="2">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C5" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>166</v>
       </c>
       <c r="E5" s="2">
-        <v>400000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>900000</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1347</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="L5" s="2">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -11007,15 +11098,36 @@
         <v>166</v>
       </c>
       <c r="E6" s="2">
-        <v>800000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>500000</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1347</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="L6" s="2">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
@@ -11023,16 +11135,37 @@
       <c r="D7" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E7" s="2">
-        <v>900000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="E7" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1347</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="L7" s="2">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
@@ -11041,15 +11174,36 @@
         <v>166</v>
       </c>
       <c r="E8" s="2">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>400000</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1347</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="L8" s="2">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C9" s="2">
         <v>1</v>
@@ -11057,16 +11211,37 @@
       <c r="D9" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="E9" s="2">
+        <v>600000</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1347</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="L9" s="2">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
@@ -11075,117 +11250,264 @@
         <v>166</v>
       </c>
       <c r="E10" s="2">
-        <v>400000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>200000</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1347</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="L10" s="2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E11" s="2">
-        <v>600000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>250000</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1347</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="L11" s="2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C12" s="2">
         <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E12" s="2">
+        <v>250000</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1347</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="L12" s="2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="1">
+        <v>267</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C13" s="2">
+        <v>5</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E13" s="2">
+        <v>300000</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1347</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="L13" s="2">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="1">
+        <v>269</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C14" s="2">
+        <v>3</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E14" s="2">
         <v>200000</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1">
-        <v>265</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="C13" s="2">
+      <c r="F14" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1347</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="L14" s="2">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="1">
+        <v>270</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C15" s="2">
         <v>1</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E13" s="2">
+      <c r="D15" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E15" s="2">
         <v>250000</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1">
-        <v>266</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="F15" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="J15" s="2">
+        <v>1347</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="L15" s="2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="1">
+        <v>271</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C16" s="2">
         <v>1</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E14" s="2">
-        <v>250000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1">
-        <v>267</v>
-      </c>
-      <c r="B15" s="2" t="s">
+      <c r="D16" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E16" s="2">
+        <v>400000</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="J16" s="2">
+        <v>1347</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="L16" s="2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="1">
+        <v>272</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>321</v>
-      </c>
-      <c r="C15" s="2">
-        <v>5</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E15" s="2">
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1">
-        <v>269</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="C16" s="2">
-        <v>3</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E16" s="2">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="1">
-        <v>270</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>323</v>
       </c>
       <c r="C17" s="2">
         <v>1</v>
@@ -11194,15 +11516,36 @@
         <v>169</v>
       </c>
       <c r="E17" s="2">
-        <v>250000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>660000</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="J17" s="2">
+        <v>1347</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="L17" s="2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C18" s="2">
         <v>1</v>
@@ -11211,41 +11554,28 @@
         <v>169</v>
       </c>
       <c r="E18" s="2">
-        <v>400000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="1">
-        <v>272</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="C19" s="2">
-        <v>1</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E19" s="2">
-        <v>660000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="1">
+        <v>500000</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="J18" s="2">
+        <v>1347</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="L18" s="2">
         <v>273</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="C20" s="2">
-        <v>1</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E20" s="2">
-        <v>500000</v>
       </c>
     </row>
   </sheetData>
@@ -11263,10 +11593,10 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>168</v>
@@ -11278,10 +11608,10 @@
         <v>278</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>168</v>
@@ -11293,10 +11623,10 @@
         <v>279</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>166</v>
@@ -11308,10 +11638,10 @@
         <v>280</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>166</v>
@@ -11323,10 +11653,10 @@
         <v>281</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>166</v>
@@ -11338,10 +11668,10 @@
         <v>282</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>331</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>337</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>166</v>
@@ -11353,16 +11683,16 @@
         <v>283</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>333</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -11380,22 +11710,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>169</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="E1" s="1">
         <v>372520000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -11403,22 +11733,22 @@
         <v>288</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>169</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="E2" s="2">
         <v>372520000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -11426,22 +11756,22 @@
         <v>289</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>169</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="E3" s="2">
         <v>306396000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -11449,22 +11779,22 @@
         <v>290</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>169</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="E4" s="2">
         <v>135300000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -11472,22 +11802,22 @@
         <v>291</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>340</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>346</v>
       </c>
       <c r="E5" s="2">
         <v>1000000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>
@@ -11508,19 +11838,19 @@
         <v>169</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="E1" s="1">
         <v>15000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -11531,19 +11861,19 @@
         <v>169</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="E2" s="2">
         <v>15000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -11554,19 +11884,19 @@
         <v>169</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="E3" s="2">
         <v>17500000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -11577,19 +11907,19 @@
         <v>169</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="E4" s="2">
         <v>2000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -11600,17 +11930,17 @@
         <v>166</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="D5" s="2">
         <v>6000000</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/張慶忠_2011-11-15_財產申報表_tmpe5e71.xlsx
+++ b/legislator/property/output/normal/張慶忠_2011-11-15_財產申報表_tmpe5e71.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2129" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2222" uniqueCount="360">
   <si>
     <t>name</t>
   </si>
@@ -995,18 +995,21 @@
     <t>1000000</t>
   </si>
   <si>
-    <t>otherbonds</t>
+    <t>antique</t>
+  </si>
+  <si>
+    <t>company</t>
   </si>
   <si>
     <t>國泰人壽</t>
   </si>
   <si>
+    <t>新光人胃</t>
+  </si>
+  <si>
     <t>利率變動型年金保險（甲型）</t>
   </si>
   <si>
-    <t>新光人胃</t>
-  </si>
-  <si>
     <t>金歡喜110養老保險</t>
   </si>
   <si>
@@ -1022,7 +1025,13 @@
     <t>長樂终身險</t>
   </si>
   <si>
-    <t>已變更為減額缴清保險。</t>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
   </si>
   <si>
     <t>未兌現支票</t>
@@ -1031,58 +1040,67 @@
     <t>漢寶開發建設(股)公司新北市中和區安樂路</t>
   </si>
   <si>
+    <t>資信建設有限公司新北市中和區安樂路</t>
+  </si>
+  <si>
+    <t>漢龍營造股份有限公司新北市中和區安樂路</t>
+  </si>
+  <si>
+    <t>芳林建設有限公司新北市中和區安樂路</t>
+  </si>
+  <si>
     <t>98年10月23日</t>
   </si>
   <si>
+    <t>98年12月06日</t>
+  </si>
+  <si>
+    <t>98年11月23日</t>
+  </si>
+  <si>
+    <t>100年08月23日</t>
+  </si>
+  <si>
     <t>借款</t>
   </si>
   <si>
-    <t>資信建設有限公司新北市中和區安樂路</t>
-  </si>
-  <si>
-    <t>漢龍營造股份有限公司新北市中和區安樂路</t>
-  </si>
-  <si>
-    <t>芳林建設有限公司新北市中和區安樂路</t>
-  </si>
-  <si>
-    <t>98年12月06日</t>
-  </si>
-  <si>
-    <t>98年11月23日</t>
-  </si>
-  <si>
-    <t>100年08月23日</t>
+    <t>claim</t>
+  </si>
+  <si>
+    <t>address</t>
   </si>
   <si>
     <t>資信建設有限公司</t>
   </si>
   <si>
+    <t>漢禧建設有限公司</t>
+  </si>
+  <si>
+    <t>宏基消防安全設備有限公司</t>
+  </si>
+  <si>
+    <t>資信建設有痕公司</t>
+  </si>
+  <si>
     <t>新北市安樂路217巷20弄8號</t>
   </si>
   <si>
+    <t>新北市景平路7821號5樓</t>
+  </si>
+  <si>
     <t>72年09月02日</t>
   </si>
   <si>
+    <t>86年03月18日</t>
+  </si>
+  <si>
+    <t>92年03月28日</t>
+  </si>
+  <si>
     <t>股金</t>
   </si>
   <si>
-    <t>漢禧建設有限公司</t>
-  </si>
-  <si>
-    <t>宏基消防安全設備有限公司</t>
-  </si>
-  <si>
-    <t>資信建設有痕公司</t>
-  </si>
-  <si>
-    <t>新北市景平路7821號5樓</t>
-  </si>
-  <si>
-    <t>86年03月18日</t>
-  </si>
-  <si>
-    <t>92年03月28日</t>
+    <t>investment</t>
   </si>
 </sst>
 </file>
@@ -11585,100 +11603,220 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>325</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>326</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>278</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="E2" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1347</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="K2" s="2">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>279</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="E3" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1347</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="K3" s="2">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>280</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="E4" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1347</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="K4" s="2">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>281</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="E5" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1347</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="K5" s="2">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>282</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="E6" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1347</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="K6" s="2">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>283</v>
       </c>
@@ -11686,13 +11824,31 @@
         <v>327</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>169</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1347</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="K7" s="2">
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -11702,122 +11858,227 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>169</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="E1" s="1">
-        <v>372520000</v>
+        <v>336</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>336</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>288</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>169</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="E2" s="2">
         <v>372520000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>346</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1347</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="N2" s="2">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>289</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>169</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E3" s="2">
         <v>306396000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>346</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1347</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="N3" s="2">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>290</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>169</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E4" s="2">
         <v>135300000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>346</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1347</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="N4" s="2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>291</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>169</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E5" s="2">
         <v>1000000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>337</v>
+        <v>346</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1347</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="N5" s="2">
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -11827,33 +12088,54 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>169</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="E1" s="1">
-        <v>15000000</v>
+        <v>348</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>346</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>299</v>
       </c>
@@ -11861,22 +12143,43 @@
         <v>169</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="E2" s="2">
         <v>15000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>358</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1347</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="N2" s="2">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>300</v>
       </c>
@@ -11884,22 +12187,43 @@
         <v>169</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="E3" s="2">
         <v>17500000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>358</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1347</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="N3" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>301</v>
       </c>
@@ -11907,40 +12231,84 @@
         <v>169</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="E4" s="2">
         <v>2000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>358</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1347</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="N4" s="2">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>166</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="D5" s="2">
+        <v>352</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="E5" s="2">
         <v>6000000</v>
       </c>
-      <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>347</v>
+        <v>358</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1347</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="N5" s="2">
+        <v>302</v>
       </c>
     </row>
   </sheetData>
